--- a/Case2/solution/sol_s2.xlsx
+++ b/Case2/solution/sol_s2.xlsx
@@ -48,31 +48,31 @@
     <t>objective-value</t>
   </si>
   <si>
-    <t>111777250.0</t>
+    <t>111536050.0</t>
   </si>
   <si>
     <t>3430.0</t>
   </si>
   <si>
-    <t>392792.0</t>
+    <t>394027.0</t>
   </si>
   <si>
-    <t>3866232.49</t>
+    <t>3859913.17</t>
   </si>
   <si>
-    <t>1339250.0</t>
+    <t>1336500.0</t>
   </si>
   <si>
-    <t>5037669.22</t>
+    <t>5039976.99</t>
   </si>
   <si>
-    <t>42396238.89</t>
+    <t>42639436.28</t>
   </si>
   <si>
     <t>36800.0</t>
   </si>
   <si>
-    <t>164849662.59</t>
+    <t>164846133.44</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1932,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -7911,7 +7911,7 @@
         <v>246</v>
       </c>
       <c r="C91">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -8418,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>162</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -11828,10 +11828,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -12258,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -15522,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="S81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T81">
         <v>0</v>
@@ -15735,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -16301,7 +16301,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -16583,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -18054,7 +18054,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C11">
         <v>154</v>
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J14">
         <v>266</v>
@@ -18369,7 +18369,7 @@
         <v>40</v>
       </c>
       <c r="X14">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -18724,7 +18724,7 @@
         <v>54</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>130</v>
@@ -18846,10 +18846,10 @@
         <v>111</v>
       </c>
       <c r="Q20">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R20">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S20">
         <v>44</v>
@@ -19006,10 +19006,10 @@
         <v>239</v>
       </c>
       <c r="O22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P22">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>211</v>
@@ -19489,10 +19489,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>346</v>
+        <v>190</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="L28">
         <v>196</v>
@@ -19717,22 +19717,22 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>252</v>
+        <v>362</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -19780,7 +19780,7 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -19860,10 +19860,10 @@
         <v>212</v>
       </c>
       <c r="W32">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="X32">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -19975,13 +19975,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H34">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>249</v>
@@ -20218,16 +20218,16 @@
         <v>64</v>
       </c>
       <c r="D37">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E37">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F37">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G37">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H37">
         <v>89</v>
@@ -20544,10 +20544,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C41">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D41">
         <v>237</v>
@@ -20645,7 +20645,7 @@
         <v>83</v>
       </c>
       <c r="H42">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -20654,13 +20654,13 @@
         <v>174</v>
       </c>
       <c r="K42">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N42">
         <v>227</v>
@@ -20672,7 +20672,7 @@
         <v>223</v>
       </c>
       <c r="Q42">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -21410,19 +21410,19 @@
         <v>50</v>
       </c>
       <c r="N51">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P51">
-        <v>299</v>
+        <v>195</v>
       </c>
       <c r="Q51">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="R51">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="S51">
         <v>87</v>
@@ -21502,10 +21502,10 @@
         <v>221</v>
       </c>
       <c r="Q52">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R52">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S52">
         <v>266</v>
@@ -21935,7 +21935,7 @@
         <v>200</v>
       </c>
       <c r="W57">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -22038,19 +22038,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F59">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -22062,13 +22062,13 @@
         <v>211</v>
       </c>
       <c r="J59">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -22077,7 +22077,7 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P59">
         <v>126</v>
@@ -22086,7 +22086,7 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -22095,10 +22095,10 @@
         <v>0</v>
       </c>
       <c r="U59">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="V59">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="W59">
         <v>0</v>
@@ -22299,7 +22299,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -22519,7 +22519,7 @@
         <v>0</v>
       </c>
       <c r="X64">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -22800,31 +22800,31 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>262</v>
+        <v>425</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -23034,10 +23034,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C71">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D71">
         <v>213</v>
@@ -23076,13 +23076,13 @@
         <v>159</v>
       </c>
       <c r="P71">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S71">
         <v>17</v>
@@ -23094,13 +23094,13 @@
         <v>228</v>
       </c>
       <c r="V71">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="W71">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="X71">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -23598,7 +23598,7 @@
         <v>165</v>
       </c>
       <c r="X77">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -23864,55 +23864,55 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>299</v>
+        <v>151</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D81">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="F81">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="G81">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H81">
         <v>151</v>
       </c>
       <c r="I81">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="J81">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="K81">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="L81">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="M81">
-        <v>133</v>
+        <v>303</v>
       </c>
       <c r="N81">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="O81">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="P81">
-        <v>269</v>
+        <v>117</v>
       </c>
       <c r="Q81">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S81">
         <v>190</v>
@@ -23921,16 +23921,16 @@
         <v>137</v>
       </c>
       <c r="U81">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="V81">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="W81">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="X81">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="Y81">
         <v>0</v>
@@ -24125,16 +24125,16 @@
         <v>86</v>
       </c>
       <c r="F84">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G84">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J84">
         <v>270</v>
@@ -24973,16 +24973,16 @@
         <v>32</v>
       </c>
       <c r="L94">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="M94">
         <v>46</v>
       </c>
       <c r="N94">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="O94">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="P94">
         <v>430</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="U96">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V96">
         <v>105</v>
@@ -25175,7 +25175,7 @@
         <v>178</v>
       </c>
       <c r="X96">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y96">
         <v>0</v>
@@ -25198,16 +25198,16 @@
         <v>109</v>
       </c>
       <c r="D97">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G97">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H97">
         <v>260</v>
@@ -25258,7 +25258,7 @@
         <v>0</v>
       </c>
       <c r="X97">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y97">
         <v>0</v>
@@ -25296,7 +25296,7 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -25305,7 +25305,7 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="O98">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -25376,10 +25376,10 @@
         <v>37</v>
       </c>
       <c r="H99">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I99">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -26190,7 +26190,7 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -26649,7 +26649,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>6</v>
+        <v>5.999999999998636</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -26670,7 +26670,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0.9999999999999432</v>
+        <v>0.9999999999981668</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -26708,7 +26708,7 @@
         <v>201</v>
       </c>
       <c r="F14">
-        <v>13.9999999999996</v>
+        <v>13.99999999999773</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -26723,55 +26723,55 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>4.99999999999801</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>1.335820343228988E-12</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z14">
-        <v>6.999999999998856</v>
+        <v>11</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -26880,7 +26880,7 @@
         <v>37</v>
       </c>
       <c r="H16">
-        <v>116.9999999999982</v>
+        <v>117</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -26889,37 +26889,37 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>185.9999999999993</v>
+        <v>185.9999999999951</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>48.99999999999932</v>
+        <v>49</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>99</v>
+        <v>99.00000000000614</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.143352493381826E-12</v>
       </c>
       <c r="Q16">
-        <v>245.0000000000001</v>
+        <v>245.0000000000061</v>
       </c>
       <c r="R16">
-        <v>5.684341886080801E-14</v>
+        <v>6.143352493381826E-12</v>
       </c>
       <c r="S16">
-        <v>52.99999999999658</v>
+        <v>53.00000000000615</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>6.143352493381826E-12</v>
       </c>
       <c r="U16">
-        <v>42.99999999999918</v>
+        <v>43</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -27117,73 +27117,73 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>166</v>
+        <v>165.4</v>
       </c>
       <c r="E19">
-        <v>95.99999999999875</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="F19">
-        <v>0.9999999999987494</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -27248,7 +27248,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -27295,7 +27295,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.273736754432321E-13</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -27408,7 +27408,7 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -27532,7 +27532,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>11.99999999999949</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -27722,7 +27722,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>11.99999999999949</v>
+        <v>12</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -27734,7 +27734,7 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>16.99999999999955</v>
+        <v>17</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -27885,13 +27885,13 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>113</v>
+        <v>112.9999999999975</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>51</v>
+        <v>50.99999999999795</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -27933,7 +27933,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -28090,10 +28090,10 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>5.999999999999829</v>
+        <v>5.999999999999346</v>
       </c>
       <c r="Y30">
-        <v>1.13686837721616E-13</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -28113,76 +28113,76 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0.7999999999998408</v>
+        <v>0.799999999999045</v>
       </c>
       <c r="E31">
-        <v>0.799999999963859</v>
+        <v>0.799999999999045</v>
       </c>
       <c r="F31">
-        <v>208.7999999999689</v>
+        <v>207.8</v>
       </c>
       <c r="G31">
-        <v>0.7999999999697422</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>252.7999999999697</v>
+        <v>361.9600000000001</v>
       </c>
       <c r="I31">
-        <v>0.7999999999697138</v>
+        <v>109.9600000000015</v>
       </c>
       <c r="J31">
-        <v>710.7999999999671</v>
+        <v>0.9600000000024524</v>
       </c>
       <c r="K31">
-        <v>426.7999999999652</v>
+        <v>426.9600000000057</v>
       </c>
       <c r="L31">
-        <v>312.7999999999644</v>
+        <v>312.9600000000057</v>
       </c>
       <c r="M31">
-        <v>67.79999999996153</v>
+        <v>67.96000000000569</v>
       </c>
       <c r="N31">
-        <v>0.7999999999611873</v>
+        <v>0.9600000000056923</v>
       </c>
       <c r="O31">
-        <v>182.8000000000138</v>
+        <v>182.9600000000057</v>
       </c>
       <c r="P31">
-        <v>0.8000000000138208</v>
+        <v>0.9600000000056923</v>
       </c>
       <c r="Q31">
-        <v>434.8000000000197</v>
+        <v>434.9600000000057</v>
       </c>
       <c r="R31">
-        <v>245.8000000000197</v>
+        <v>245.9600000000057</v>
       </c>
       <c r="S31">
-        <v>0.8000000000196792</v>
+        <v>0.9600000000056923</v>
       </c>
       <c r="T31">
-        <v>0.8000000000192813</v>
+        <v>0.9600000000056923</v>
       </c>
       <c r="U31">
-        <v>223.8000000000193</v>
+        <v>223.9600000000057</v>
       </c>
       <c r="V31">
-        <v>0.8000000000190826</v>
+        <v>0.9600000000056923</v>
       </c>
       <c r="W31">
-        <v>582.8000000000179</v>
+        <v>582.9600000000057</v>
       </c>
       <c r="X31">
-        <v>327.8000000000179</v>
+        <v>327.9600000000057</v>
       </c>
       <c r="Y31">
-        <v>68.80000000001755</v>
+        <v>68.96000000000569</v>
       </c>
       <c r="Z31">
-        <v>0.8000000000190539</v>
+        <v>0.9600000000056923</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>0.9600000000052091</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32">
         <v>0</v>
@@ -28365,22 +28365,22 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>235.9999999999989</v>
+        <v>235.9999999999985</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>38</v>
+        <v>37.99999999999862</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>7.999999999999999</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>80.99999999999869</v>
+        <v>81</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -28401,10 +28401,10 @@
         <v>52</v>
       </c>
       <c r="Q34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>5.684341886080882E-15</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -28428,7 +28428,7 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>75.99999999999977</v>
+        <v>76</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>7.999999999999545</v>
+        <v>13.9999999999992</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -28656,7 +28656,7 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>0.9999999999990905</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -28677,7 +28677,7 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>26</v>
+        <v>25.99999999999992</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -28940,79 +28940,79 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0.7999999999994998</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="D41">
-        <v>0.7999999999416332</v>
+        <v>0.8</v>
       </c>
       <c r="E41">
-        <v>0.8000000000434966</v>
+        <v>2.8</v>
       </c>
       <c r="F41">
-        <v>0.8000000000434966</v>
+        <v>0.8000000000000043</v>
       </c>
       <c r="G41">
-        <v>0.8000000000456193</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="H41">
-        <v>0.8000000000456193</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="I41">
-        <v>0.8000000000392902</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="J41">
-        <v>0.8000000000392902</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="K41">
-        <v>0.8000000000315595</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="L41">
-        <v>0.8000000000315577</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="M41">
-        <v>0.8000000000351957</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="N41">
-        <v>0.800000000037463</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="O41">
-        <v>0.8000000000374712</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="P41">
-        <v>0.800000000034288</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="Q41">
-        <v>0.800000000034288</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="R41">
-        <v>0.8000000000421323</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="S41">
-        <v>0.8000000000421323</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="T41">
-        <v>0.8000000000415639</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="U41">
-        <v>0.8000000000403702</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="V41">
-        <v>0.8000000000396312</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="W41">
-        <v>0.8000000000388923</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="X41">
-        <v>0.8000000000384375</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="Y41">
-        <v>0.8000000000377554</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="Z41">
-        <v>0.8000000000367891</v>
+        <v>0.7999999999999901</v>
       </c>
       <c r="AA41">
-        <v>0.8000000000363627</v>
+        <v>0.7999999999999901</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>52.99999999999622</v>
+        <v>30</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -29056,10 +29056,10 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>114.9999999999884</v>
+        <v>114</v>
       </c>
       <c r="O42">
-        <v>0.9999999999872671</v>
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>8.999999999999659</v>
+        <v>53</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -29542,37 +29542,37 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>113</v>
+        <v>112.9999999999945</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>193</v>
+        <v>192.9999999999898</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>262</v>
+        <v>261.9999999999961</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
       <c r="P48">
-        <v>152.9999999998209</v>
+        <v>152.9999999999959</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>226</v>
+        <v>225.999999999997</v>
       </c>
       <c r="S48">
         <v>0</v>
       </c>
       <c r="T48">
-        <v>194.9999999999993</v>
+        <v>194.9999999999986</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -29581,16 +29581,16 @@
         <v>0</v>
       </c>
       <c r="W48">
-        <v>492.0000000000001</v>
+        <v>491.9999999999985</v>
       </c>
       <c r="X48">
-        <v>240.0000000000001</v>
+        <v>239.9999999999966</v>
       </c>
       <c r="Y48">
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>140</v>
+        <v>139.9999999999993</v>
       </c>
       <c r="AA48">
         <v>0</v>
@@ -29702,7 +29702,7 @@
         <v>72</v>
       </c>
       <c r="H50">
-        <v>13.99999999999955</v>
+        <v>13.99999999999886</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -29750,7 +29750,7 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>6</v>
+        <v>5.999999999999488</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -29809,19 +29809,19 @@
         <v>0</v>
       </c>
       <c r="P51">
-        <v>13.99999999999977</v>
+        <v>13.99999999999432</v>
       </c>
       <c r="Q51">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>12.99999999999409</v>
       </c>
       <c r="S51">
-        <v>90.99999999999054</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>95.99999999999734</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -29874,10 +29874,10 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>8.853652505014016E-12</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>8.853652505014016E-12</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -29904,7 +29904,7 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>7.105427357601002E-15</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -30446,7 +30446,7 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>2.911569999990725</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -30470,28 +30470,28 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.009399591155522989</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>0.00939959115550161</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>0.009399591155480237</v>
       </c>
       <c r="R59">
-        <v>0.9390993361080717</v>
+        <v>0.009399591155480237</v>
       </c>
       <c r="S59">
-        <v>0.9390993361080717</v>
+        <v>0.009399591155480237</v>
       </c>
       <c r="T59">
-        <v>0.9390993361077165</v>
+        <v>0.009399591155480237</v>
       </c>
       <c r="U59">
-        <v>0.9390993361077271</v>
+        <v>0</v>
       </c>
       <c r="V59">
-        <v>0.9390993361080939</v>
+        <v>0</v>
       </c>
       <c r="W59">
         <v>0</v>
@@ -30532,52 +30532,52 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>117.9999999999997</v>
+        <v>117.999999999997</v>
       </c>
       <c r="I60">
-        <v>2.501110429875553E-12</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>145.0000000000003</v>
+        <v>144.9999999999956</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>188</v>
+        <v>187.9999999999953</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>146</v>
+        <v>145.9999999999974</v>
       </c>
       <c r="O60">
         <v>0</v>
       </c>
       <c r="P60">
-        <v>124.9999999999989</v>
+        <v>124.9999999999981</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>168</v>
+        <v>167.9999999999984</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60">
-        <v>181.9999999999995</v>
+        <v>181.9999999999986</v>
       </c>
       <c r="U60">
         <v>0</v>
       </c>
       <c r="V60">
-        <v>64.99999999999989</v>
+        <v>64.99999999999739</v>
       </c>
       <c r="W60">
-        <v>7.999999999999666</v>
+        <v>7.999999999998806</v>
       </c>
       <c r="X60">
         <v>0</v>
@@ -30600,79 +30600,79 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0.4999999999995453</v>
+        <v>0.4999999999956799</v>
       </c>
       <c r="D61">
-        <v>0.4999999999995453</v>
+        <v>0.4999999999956799</v>
       </c>
       <c r="E61">
-        <v>0.5000000000004263</v>
+        <v>0.4999999999931788</v>
       </c>
       <c r="F61">
-        <v>0.5000000000004263</v>
+        <v>0.4999999999879492</v>
       </c>
       <c r="G61">
-        <v>0.4999999999995705</v>
+        <v>0.499999999979309</v>
       </c>
       <c r="H61">
-        <v>0.4999999999792498</v>
+        <v>0.499999999979309</v>
       </c>
       <c r="I61">
-        <v>0.4999999999792498</v>
+        <v>0.499999999979309</v>
       </c>
       <c r="J61">
-        <v>0.4999999999792522</v>
+        <v>0.499999999979309</v>
       </c>
       <c r="K61">
-        <v>0.4999999999780584</v>
+        <v>0.499999999979309</v>
       </c>
       <c r="L61">
-        <v>0.499999999998181</v>
+        <v>0.499999999979309</v>
       </c>
       <c r="M61">
-        <v>0.499999999998181</v>
+        <v>0.499999999979309</v>
       </c>
       <c r="N61">
-        <v>0.499999999998181</v>
+        <v>0.499999999979309</v>
       </c>
       <c r="O61">
-        <v>0.4999999999978968</v>
+        <v>0.499999999979309</v>
       </c>
       <c r="P61">
-        <v>0.4999999999978968</v>
+        <v>0.499999999979309</v>
       </c>
       <c r="Q61">
-        <v>0.4999999999962483</v>
+        <v>0.499999999979309</v>
       </c>
       <c r="R61">
-        <v>0.4999999999953388</v>
+        <v>0.5</v>
       </c>
       <c r="S61">
-        <v>0.4999999999978257</v>
+        <v>0.5</v>
       </c>
       <c r="T61">
-        <v>0.4999999999978257</v>
+        <v>0.5</v>
       </c>
       <c r="U61">
-        <v>0.4999999999978968</v>
+        <v>0.5</v>
       </c>
       <c r="V61">
-        <v>0.4999999999978968</v>
+        <v>0.5</v>
       </c>
       <c r="W61">
-        <v>0.4999999999978968</v>
+        <v>0.5</v>
       </c>
       <c r="X61">
-        <v>0.4999999999978968</v>
+        <v>0.5</v>
       </c>
       <c r="Y61">
-        <v>0.4999999999978968</v>
+        <v>0.5</v>
       </c>
       <c r="Z61">
-        <v>0.4999999999978968</v>
+        <v>0.5</v>
       </c>
       <c r="AA61">
-        <v>0.4999999999975557</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -30701,7 +30701,7 @@
         <v>19</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -30749,7 +30749,7 @@
         <v>0</v>
       </c>
       <c r="Y62">
-        <v>14.99999999999915</v>
+        <v>15</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -30849,34 +30849,34 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0.7999999999999616</v>
+        <v>0.7999999999998977</v>
       </c>
       <c r="D64">
-        <v>0.7999999999965395</v>
+        <v>0.7999999999998977</v>
       </c>
       <c r="E64">
-        <v>0.7999999999963165</v>
+        <v>0.7999999999998977</v>
       </c>
       <c r="F64">
+        <v>0.7999999999998977</v>
+      </c>
+      <c r="G64">
         <v>0.8</v>
       </c>
-      <c r="G64">
-        <v>0.8000000000000114</v>
-      </c>
       <c r="H64">
-        <v>0.8000000000000114</v>
+        <v>0.8</v>
       </c>
       <c r="I64">
-        <v>0.7999999999999829</v>
+        <v>0.8</v>
       </c>
       <c r="J64">
-        <v>0.7999999999999829</v>
+        <v>0.8</v>
       </c>
       <c r="K64">
-        <v>0.7999999999992156</v>
+        <v>0.8</v>
       </c>
       <c r="L64">
-        <v>0.7999999999992005</v>
+        <v>0.8</v>
       </c>
       <c r="M64">
         <v>0.8</v>
@@ -30888,7 +30888,7 @@
         <v>0.8</v>
       </c>
       <c r="P64">
-        <v>0.7999999999999954</v>
+        <v>0.8</v>
       </c>
       <c r="Q64">
         <v>0.8</v>
@@ -30897,31 +30897,31 @@
         <v>0.8</v>
       </c>
       <c r="S64">
-        <v>0.7999999999962597</v>
+        <v>0.8</v>
       </c>
       <c r="T64">
-        <v>0.7999999999962597</v>
+        <v>0.8</v>
       </c>
       <c r="U64">
-        <v>0.7999999999962597</v>
+        <v>0.8</v>
       </c>
       <c r="V64">
-        <v>0.7999999999962597</v>
+        <v>0.8</v>
       </c>
       <c r="W64">
-        <v>0.7999999999993292</v>
+        <v>0.8</v>
       </c>
       <c r="X64">
-        <v>0.8000000000002279</v>
+        <v>0.8</v>
       </c>
       <c r="Y64">
-        <v>0.8000000000002387</v>
+        <v>0.8</v>
       </c>
       <c r="Z64">
-        <v>0.8000000000000966</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -31202,31 +31202,31 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>84.19999999999095</v>
+        <v>42.2</v>
       </c>
       <c r="K68">
-        <v>0.1999999999975444</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>90.19999999999754</v>
+        <v>219.56</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>0.5600000000000023</v>
       </c>
       <c r="N68">
-        <v>125.9599999999966</v>
+        <v>0.5600000000000023</v>
       </c>
       <c r="O68">
         <v>0</v>
       </c>
       <c r="P68">
-        <v>13.76799999997939</v>
+        <v>0.4479999999998145</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68">
-        <v>220.8143999999883</v>
+        <v>220.1583999999997</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -31478,10 +31478,10 @@
         <v>0</v>
       </c>
       <c r="S71">
-        <v>0</v>
+        <v>0.9999999999997726</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>0.9999999999993179</v>
       </c>
       <c r="U71">
         <v>0</v>
@@ -31496,10 +31496,10 @@
         <v>0</v>
       </c>
       <c r="Y71">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Z71">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="AA71">
         <v>0</v>
@@ -31712,7 +31712,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>4.263256414560601E-15</v>
+        <v>0</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="V78">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W78">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>0</v>
       </c>
       <c r="V79">
-        <v>2.273736754432321E-13</v>
+        <v>0</v>
       </c>
       <c r="W79">
         <v>0</v>
@@ -32163,7 +32163,7 @@
         <v>0</v>
       </c>
       <c r="Z79">
-        <v>2.273736754432321E-13</v>
+        <v>0</v>
       </c>
       <c r="AA79">
         <v>0</v>
@@ -32207,10 +32207,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>3.552713678800501E-15</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>12.99999999999996</v>
+        <v>12.99999999999682</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -32225,7 +32225,7 @@
         <v>0</v>
       </c>
       <c r="S80">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T80">
         <v>0</v>
@@ -32266,70 +32266,70 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>112</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>50</v>
+      </c>
+      <c r="O81">
         <v>1</v>
       </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>2</v>
-      </c>
-      <c r="N81">
-        <v>1.999999999999886</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
       <c r="P81">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T81">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="U81">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="V81">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="W81">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="X81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y81">
         <v>0</v>
       </c>
       <c r="Z81">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="AA81">
         <v>0</v>
@@ -32509,79 +32509,79 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0.6000000000000085</v>
+        <v>0.5999999999998806</v>
       </c>
       <c r="D84">
-        <v>32.60000000000001</v>
+        <v>32.59999999999988</v>
       </c>
       <c r="E84">
-        <v>25.60000000000001</v>
+        <v>25.59999999999616</v>
       </c>
       <c r="F84">
-        <v>0.6000000000000085</v>
+        <v>0.5999999999961574</v>
       </c>
       <c r="G84">
-        <v>0.6000000000000085</v>
+        <v>0.5999999999925762</v>
       </c>
       <c r="H84">
-        <v>0.5999999999968395</v>
+        <v>0.5999999999974079</v>
       </c>
       <c r="I84">
-        <v>0.5999999999963279</v>
+        <v>11.59999999999741</v>
       </c>
       <c r="J84">
-        <v>20.59999999999633</v>
+        <v>21.6</v>
       </c>
       <c r="K84">
-        <v>9.599999999996328</v>
+        <v>10.6</v>
       </c>
       <c r="L84">
-        <v>0.5999999999963279</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="M84">
-        <v>0.5999999999963279</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="N84">
-        <v>0.5999999999963279</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="O84">
-        <v>0.5999999999939727</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="P84">
-        <v>0.59999999999377</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Q84">
-        <v>15.59999999999263</v>
+        <v>15.6</v>
       </c>
       <c r="R84">
-        <v>0.5999999999978627</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="S84">
-        <v>0.5999999999992198</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="T84">
-        <v>0.5999999999992269</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="U84">
-        <v>0.5999999999986585</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="V84">
-        <v>10.5999999999992</v>
+        <v>10.6</v>
       </c>
       <c r="W84">
-        <v>0.5999999999991985</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X84">
-        <v>0.5999999999991985</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y84">
-        <v>0.5999999999991985</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z84">
-        <v>25.5999999999992</v>
+        <v>25.6</v>
       </c>
       <c r="AA84">
-        <v>0.5999999999991985</v>
+        <v>0.6000000000000014</v>
       </c>
     </row>
     <row r="85" spans="1:27">
@@ -32871,7 +32871,7 @@
         <v>107</v>
       </c>
       <c r="M88">
-        <v>50.99999999999989</v>
+        <v>50.99999999999727</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -32886,10 +32886,10 @@
         <v>0</v>
       </c>
       <c r="R88">
-        <v>1.70530256582424E-13</v>
+        <v>0</v>
       </c>
       <c r="S88">
-        <v>41.00000000000018</v>
+        <v>40.99999999999869</v>
       </c>
       <c r="T88">
         <v>0</v>
@@ -33090,40 +33090,40 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>0.3999999999999204</v>
+        <v>0.3999999999998636</v>
       </c>
       <c r="D91">
-        <v>0.3999999999940371</v>
+        <v>0.3999999999998636</v>
       </c>
       <c r="E91">
-        <v>0.3999999999934687</v>
+        <v>0.3999999999998636</v>
       </c>
       <c r="F91">
-        <v>0.3999999999934687</v>
+        <v>0.4</v>
       </c>
       <c r="G91">
-        <v>0.3999999999999773</v>
+        <v>0.4</v>
       </c>
       <c r="H91">
-        <v>0.3999999999999773</v>
+        <v>0.4</v>
       </c>
       <c r="I91">
         <v>0.4</v>
       </c>
       <c r="J91">
-        <v>0.4000000000000136</v>
+        <v>0.4</v>
       </c>
       <c r="K91">
-        <v>0.3999999999999346</v>
+        <v>0.4</v>
       </c>
       <c r="L91">
-        <v>0.3999999999999062</v>
+        <v>0.4</v>
       </c>
       <c r="M91">
-        <v>0.3999999999999062</v>
+        <v>0.4</v>
       </c>
       <c r="N91">
-        <v>0.3999999999999062</v>
+        <v>0.4</v>
       </c>
       <c r="O91">
         <v>0.4</v>
@@ -33138,25 +33138,25 @@
         <v>0.4</v>
       </c>
       <c r="S91">
-        <v>0.3999999999937955</v>
+        <v>0.4</v>
       </c>
       <c r="T91">
-        <v>0.3999999999937813</v>
+        <v>0.4</v>
       </c>
       <c r="U91">
-        <v>0.4000000000000057</v>
+        <v>0.4</v>
       </c>
       <c r="V91">
-        <v>0.4000000000000057</v>
+        <v>0.4</v>
       </c>
       <c r="W91">
         <v>0.4</v>
       </c>
       <c r="X91">
-        <v>0.4000000000000057</v>
+        <v>0.4</v>
       </c>
       <c r="Y91">
-        <v>0.3999999999996504</v>
+        <v>0.4</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -33360,7 +33360,7 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>2.999999999999773</v>
+        <v>2.999999999999829</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -33381,7 +33381,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -33505,79 +33505,79 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>0.2000000000000739</v>
+        <v>0.2000000000106184</v>
       </c>
       <c r="D96">
-        <v>0.2000000000000632</v>
+        <v>0.2000000000106184</v>
       </c>
       <c r="E96">
-        <v>0.1999999999962512</v>
+        <v>0.2000000000100499</v>
       </c>
       <c r="F96">
-        <v>0.1999999999959243</v>
+        <v>0.2000000000087994</v>
       </c>
       <c r="G96">
-        <v>0.1999999999959243</v>
+        <v>0.2000000000080036</v>
       </c>
       <c r="H96">
-        <v>0.1999997999932969</v>
+        <v>0.2000000000080036</v>
       </c>
       <c r="I96">
-        <v>0.1999997999930372</v>
+        <v>0.2000000000079787</v>
       </c>
       <c r="J96">
-        <v>0.1999999999996191</v>
+        <v>0.2000000000079787</v>
       </c>
       <c r="K96">
-        <v>0.1999999999996191</v>
+        <v>0.2000000000079787</v>
       </c>
       <c r="L96">
-        <v>0.1999999999996191</v>
+        <v>0.2000000000079787</v>
       </c>
       <c r="M96">
-        <v>0.1999999999996191</v>
+        <v>0.2000000000079787</v>
       </c>
       <c r="N96">
-        <v>0.1999999999996191</v>
+        <v>0.2000000000079787</v>
       </c>
       <c r="O96">
-        <v>0.1999999999999886</v>
+        <v>0.2000000000079787</v>
       </c>
       <c r="P96">
-        <v>0.1999999999999816</v>
+        <v>0.2000000000079787</v>
       </c>
       <c r="Q96">
-        <v>0.1999999999999815</v>
+        <v>0.2000000000079787</v>
       </c>
       <c r="R96">
-        <v>0.1999999999999176</v>
+        <v>0.2000000000079787</v>
       </c>
       <c r="S96">
-        <v>0.1999999999999176</v>
+        <v>0.2000000000079787</v>
       </c>
       <c r="T96">
-        <v>0.1999999999995339</v>
+        <v>0.2000000000079787</v>
       </c>
       <c r="U96">
-        <v>0.2</v>
+        <v>0.2000000000079787</v>
       </c>
       <c r="V96">
-        <v>0.2</v>
+        <v>0.2000000000079787</v>
       </c>
       <c r="W96">
-        <v>0.2</v>
+        <v>0.2000000000079787</v>
       </c>
       <c r="X96">
-        <v>0.199999999999065</v>
+        <v>1.200000000007932</v>
       </c>
       <c r="Y96">
-        <v>0.1999999999990578</v>
+        <v>1.200000000007932</v>
       </c>
       <c r="Z96">
-        <v>0.1999999999994699</v>
+        <v>1.200000000007932</v>
       </c>
       <c r="AA96">
-        <v>0.1999999999994699</v>
+        <v>0.2000000000078437</v>
       </c>
     </row>
     <row r="97" spans="1:27">
@@ -33588,79 +33588,79 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>0.2999999999999829</v>
+        <v>0.2999999999997272</v>
       </c>
       <c r="D97">
-        <v>0.2999999999975098</v>
+        <v>0.2999999999989882</v>
       </c>
       <c r="E97">
-        <v>0.2999999999977372</v>
+        <v>0.3</v>
       </c>
       <c r="F97">
-        <v>0.2999999999983061</v>
+        <v>0.3</v>
       </c>
       <c r="G97">
-        <v>0.2999999999983061</v>
+        <v>0.3</v>
       </c>
       <c r="H97">
-        <v>0.2999999999513392</v>
+        <v>0.3</v>
       </c>
       <c r="I97">
-        <v>0.2999999999528158</v>
+        <v>1.3</v>
       </c>
       <c r="J97">
-        <v>0.2999999999571741</v>
+        <v>0.3</v>
       </c>
       <c r="K97">
-        <v>0.2999999999573664</v>
+        <v>0.3</v>
       </c>
       <c r="L97">
-        <v>0.2999999999592009</v>
+        <v>0.3</v>
       </c>
       <c r="M97">
-        <v>0.299999999959721</v>
+        <v>0.3</v>
       </c>
       <c r="N97">
-        <v>0.2999999999602352</v>
+        <v>0.3</v>
       </c>
       <c r="O97">
-        <v>0.2999999999609884</v>
+        <v>0.3</v>
       </c>
       <c r="P97">
-        <v>0.2999999999610661</v>
+        <v>0.3</v>
       </c>
       <c r="Q97">
-        <v>0.2999999999618269</v>
+        <v>0.3</v>
       </c>
       <c r="R97">
-        <v>0.2999999999618268</v>
+        <v>0.3</v>
       </c>
       <c r="S97">
-        <v>0.2999999999618055</v>
+        <v>0.3</v>
       </c>
       <c r="T97">
-        <v>0.2999999999617842</v>
+        <v>0.3</v>
       </c>
       <c r="U97">
-        <v>0.2999999999615284</v>
+        <v>0.3</v>
       </c>
       <c r="V97">
-        <v>0.2999999999614964</v>
+        <v>0.3</v>
       </c>
       <c r="W97">
-        <v>0.2999999999614715</v>
+        <v>0.3</v>
       </c>
       <c r="X97">
-        <v>0.2999999999601525</v>
+        <v>0.3</v>
       </c>
       <c r="Y97">
-        <v>0.2999999999599505</v>
+        <v>0.3</v>
       </c>
       <c r="Z97">
-        <v>0.2999999999601535</v>
+        <v>0.3</v>
       </c>
       <c r="AA97">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="98" spans="1:27">
@@ -33695,46 +33695,46 @@
         <v>35</v>
       </c>
       <c r="K98">
-        <v>5.684341886080803E-12</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>261.0000000000011</v>
+        <v>253</v>
       </c>
       <c r="M98">
+        <v>121</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>62</v>
+      </c>
+      <c r="P98">
+        <v>51</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>118</v>
+      </c>
+      <c r="S98">
+        <v>48</v>
+      </c>
+      <c r="T98">
+        <v>1</v>
+      </c>
+      <c r="U98">
+        <v>141</v>
+      </c>
+      <c r="V98">
         <v>129</v>
       </c>
-      <c r="N98">
-        <v>7.999999999994426</v>
-      </c>
-      <c r="O98">
-        <v>63</v>
-      </c>
-      <c r="P98">
-        <v>52</v>
-      </c>
-      <c r="Q98">
-        <v>1.99999999999477</v>
-      </c>
-      <c r="R98">
-        <v>117.9999999999948</v>
-      </c>
-      <c r="S98">
-        <v>47.99999999999477</v>
-      </c>
-      <c r="T98">
-        <v>0.9999999999947704</v>
-      </c>
-      <c r="U98">
-        <v>140.9999999999895</v>
-      </c>
-      <c r="V98">
-        <v>128.9999999999892</v>
-      </c>
       <c r="W98">
         <v>0</v>
       </c>
       <c r="X98">
-        <v>3.456079866737128E-11</v>
+        <v>0</v>
       </c>
       <c r="Y98">
         <v>2</v>
@@ -33778,7 +33778,7 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -33790,16 +33790,16 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>20</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>1.13686837721616E-13</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>36.00000000000012</v>
+        <v>35.99999999999892</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -33808,7 +33808,7 @@
         <v>0</v>
       </c>
       <c r="U99">
-        <v>27</v>
+        <v>26.99999999999807</v>
       </c>
       <c r="V99">
         <v>0</v>
@@ -33817,7 +33817,7 @@
         <v>0</v>
       </c>
       <c r="X99">
-        <v>3</v>
+        <v>2.999999999999048</v>
       </c>
       <c r="Y99">
         <v>0</v>
@@ -34384,40 +34384,40 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>39.99999999998613</v>
+        <v>40.00000000000092</v>
       </c>
       <c r="Q5">
-        <v>168.999999999987</v>
+        <v>169.0000000000023</v>
       </c>
       <c r="R5">
-        <v>342.9999999999889</v>
+        <v>343.0000000000046</v>
       </c>
       <c r="S5">
-        <v>434.9999999999905</v>
+        <v>435.0000000000074</v>
       </c>
       <c r="T5">
-        <v>698.999999999992</v>
+        <v>699.0000000000103</v>
       </c>
       <c r="U5">
-        <v>807.9999999999936</v>
+        <v>808.0000000000133</v>
       </c>
       <c r="V5">
-        <v>807.9999999999952</v>
+        <v>808.0000000000163</v>
       </c>
       <c r="W5">
-        <v>903.9999999999968</v>
+        <v>904.0000000000192</v>
       </c>
       <c r="X5">
-        <v>1008.999999999998</v>
+        <v>1009.000000000022</v>
       </c>
       <c r="Y5">
-        <v>1088</v>
+        <v>1088.000000000028</v>
       </c>
       <c r="Z5">
-        <v>1302.000000000004</v>
+        <v>1302.000000000032</v>
       </c>
       <c r="AA5">
-        <v>1485.000000000004</v>
+        <v>1485.000000000032</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -34470,37 +34470,37 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>102</v>
+        <v>102.0000000000005</v>
       </c>
       <c r="R6">
-        <v>360.9999999999944</v>
+        <v>361.0000000000015</v>
       </c>
       <c r="S6">
-        <v>409.9999999999965</v>
+        <v>410.000000000003</v>
       </c>
       <c r="T6">
-        <v>419.9999999999965</v>
+        <v>420.0000000000053</v>
       </c>
       <c r="U6">
-        <v>420</v>
+        <v>420.0000000000077</v>
       </c>
       <c r="V6">
-        <v>420.0000000000011</v>
+        <v>420.0000000000101</v>
       </c>
       <c r="W6">
-        <v>534.0000000000026</v>
+        <v>534.0000000000125</v>
       </c>
       <c r="X6">
-        <v>718.0000000000032</v>
+        <v>718.0000000000149</v>
       </c>
       <c r="Y6">
-        <v>830.0000000000032</v>
+        <v>830.0000000000177</v>
       </c>
       <c r="Z6">
-        <v>829.9999999999976</v>
+        <v>830.0000000000206</v>
       </c>
       <c r="AA6">
-        <v>844.9999999999953</v>
+        <v>845.0000000000206</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -34609,64 +34609,64 @@
         <v>172</v>
       </c>
       <c r="H8">
-        <v>187.2</v>
+        <v>187.1999999999995</v>
       </c>
       <c r="I8">
-        <v>339.3199999973116</v>
+        <v>339.3199999999993</v>
       </c>
       <c r="J8">
-        <v>203.5920000002952</v>
+        <v>203.5919999999993</v>
       </c>
       <c r="K8">
-        <v>168.1552000003867</v>
+        <v>168.1551999999988</v>
       </c>
       <c r="L8">
-        <v>235.8931200003717</v>
+        <v>235.8931199999976</v>
       </c>
       <c r="M8">
-        <v>293.5358720002696</v>
+        <v>293.535871999997</v>
       </c>
       <c r="N8">
-        <v>317.1215232003597</v>
+        <v>317.1215231999968</v>
       </c>
       <c r="O8">
-        <v>366.2729139204021</v>
+        <v>366.2729139199974</v>
       </c>
       <c r="P8">
-        <v>219.7637483522412</v>
+        <v>219.7637483519983</v>
       </c>
       <c r="Q8">
-        <v>131.8582490113447</v>
+        <v>131.8582490111987</v>
       </c>
       <c r="R8">
-        <v>275.1149494045703</v>
+        <v>275.1149494067183</v>
       </c>
       <c r="S8">
-        <v>367.0689696443733</v>
+        <v>367.0689696440299</v>
       </c>
       <c r="T8">
-        <v>352.2413817867055</v>
+        <v>352.2413817864168</v>
       </c>
       <c r="U8">
-        <v>379.3448290721863</v>
+        <v>379.3448290718486</v>
       </c>
       <c r="V8">
-        <v>247.6068974434165</v>
+        <v>247.6068974431061</v>
       </c>
       <c r="W8">
-        <v>148.564138466143</v>
+        <v>148.5641384658627</v>
       </c>
       <c r="X8">
-        <v>363.1384830798488</v>
+        <v>363.138483079517</v>
       </c>
       <c r="Y8">
-        <v>344.8830898479093</v>
+        <v>344.8830898477101</v>
       </c>
       <c r="Z8">
-        <v>341.9298539087456</v>
+        <v>341.9298539086258</v>
       </c>
       <c r="AA8">
-        <v>313.1579123452474</v>
+        <v>313.1579123451754</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -35066,22 +35066,22 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>49</v>
+        <v>49.00000000000203</v>
       </c>
       <c r="W13">
-        <v>304.1999999999984</v>
+        <v>304.2000000000027</v>
       </c>
       <c r="X13">
-        <v>250.3599999999989</v>
+        <v>250.3600000000029</v>
       </c>
       <c r="Y13">
-        <v>422.2879999999999</v>
+        <v>422.2880000000033</v>
       </c>
       <c r="Z13">
-        <v>493.8304000000008</v>
+        <v>493.830400000004</v>
       </c>
       <c r="AA13">
-        <v>493.0643200000006</v>
+        <v>493.0643200000032</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -35119,7 +35119,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.339550858072471E-12</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -35347,22 +35347,22 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>28.99999999906868</v>
+        <v>29</v>
       </c>
       <c r="F17">
-        <v>110.7000000001863</v>
+        <v>110.7</v>
       </c>
       <c r="G17">
-        <v>204.2100000001956</v>
+        <v>204.21</v>
       </c>
       <c r="H17">
-        <v>201.2630000000587</v>
+        <v>201.2629999995691</v>
       </c>
       <c r="I17">
-        <v>94.37890000001759</v>
+        <v>94.37889999987073</v>
       </c>
       <c r="J17">
-        <v>103.3136699992162</v>
+        <v>103.3136699996456</v>
       </c>
       <c r="K17">
         <v>194.994101000193</v>
@@ -35371,13 +35371,13 @@
         <v>185.4982303002034</v>
       </c>
       <c r="M17">
-        <v>172.6494690902764</v>
+        <v>172.649469090061</v>
       </c>
       <c r="N17">
-        <v>162.7948407270829</v>
+        <v>162.7948407270183</v>
       </c>
       <c r="O17">
-        <v>48.83845221760315</v>
+        <v>48.83845221757547</v>
       </c>
       <c r="P17">
         <v>93.65153566561639</v>
@@ -35401,19 +35401,19 @@
         <v>115.6738019696786</v>
       </c>
       <c r="W17">
-        <v>307.7021405909036</v>
+        <v>307.702140591049</v>
       </c>
       <c r="X17">
-        <v>174.3106421771143</v>
+        <v>174.3106421773147</v>
       </c>
       <c r="Y17">
-        <v>203.2931926533347</v>
+        <v>203.2931926531944</v>
       </c>
       <c r="Z17">
-        <v>108.9879577960004</v>
+        <v>108.9879577959583</v>
       </c>
       <c r="AA17">
-        <v>176.6963873388001</v>
+        <v>176.6963873387875</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>151.9999999999999</v>
+        <v>151.6</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -35659,10 +35659,10 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>297.9999999999997</v>
+        <v>298</v>
       </c>
       <c r="AA20">
-        <v>342.9999999999997</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -35688,7 +35688,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.273736754432321E-13</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -35739,13 +35739,13 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>117.0000000000006</v>
+        <v>117</v>
       </c>
       <c r="Z21">
-        <v>105.3000000000008</v>
+        <v>105.3</v>
       </c>
       <c r="AA21">
-        <v>118.7700000000007</v>
+        <v>118.77</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -35857,61 +35857,61 @@
         <v>166</v>
       </c>
       <c r="I23">
-        <v>161.8000000002212</v>
+        <v>161.7999999999989</v>
       </c>
       <c r="J23">
-        <v>48.54000000021188</v>
+        <v>48.53999999999928</v>
       </c>
       <c r="K23">
-        <v>203.5620000000636</v>
+        <v>203.5620000000923</v>
       </c>
       <c r="L23">
-        <v>123.0686000000146</v>
+        <v>123.0686000000277</v>
       </c>
       <c r="M23">
-        <v>177.9205799903649</v>
+        <v>177.9205800000074</v>
       </c>
       <c r="N23">
-        <v>211.3761739971097</v>
+        <v>211.376174000001</v>
       </c>
       <c r="O23">
-        <v>179.412852199133</v>
+        <v>179.4128521999997</v>
       </c>
       <c r="P23">
-        <v>53.82385565974047</v>
+        <v>53.82385565999987</v>
       </c>
       <c r="Q23">
-        <v>237.1471566979222</v>
+        <v>237.1471566979996</v>
       </c>
       <c r="R23">
-        <v>106.1441470093768</v>
+        <v>106.1441470093987</v>
       </c>
       <c r="S23">
-        <v>192.8432441028132</v>
+        <v>192.8432441028186</v>
       </c>
       <c r="T23">
-        <v>139.8529732308441</v>
+        <v>139.8529732308455</v>
       </c>
       <c r="U23">
-        <v>221.9558919692532</v>
+        <v>221.9558919692531</v>
       </c>
       <c r="V23">
-        <v>125.5867675906921</v>
+        <v>125.5867675907755</v>
       </c>
       <c r="W23">
-        <v>284.6760302772077</v>
+        <v>284.6760302772327</v>
       </c>
       <c r="X23">
-        <v>85.4028090831625</v>
+        <v>85.40280908316981</v>
       </c>
       <c r="Y23">
-        <v>155.6208427249488</v>
+        <v>155.6208427249509</v>
       </c>
       <c r="Z23">
-        <v>151.6862528174847</v>
+        <v>151.6862528174853</v>
       </c>
       <c r="AA23">
-        <v>175.5058758452454</v>
+        <v>175.5058749689775</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -36008,76 +36008,76 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>18.99999999999784</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>98.99999999999784</v>
+        <v>99.00000000000017</v>
       </c>
       <c r="G25">
-        <v>288.9999999999978</v>
+        <v>289.0000000000006</v>
       </c>
       <c r="H25">
-        <v>468.9999999999978</v>
+        <v>469.0000000000014</v>
       </c>
       <c r="I25">
-        <v>556.9999999999985</v>
+        <v>557.000000000002</v>
       </c>
       <c r="J25">
-        <v>626.9999999999992</v>
+        <v>627.0000000000028</v>
       </c>
       <c r="K25">
-        <v>707</v>
+        <v>707.0000000000041</v>
       </c>
       <c r="L25">
-        <v>757</v>
+        <v>757.0000000000058</v>
       </c>
       <c r="M25">
-        <v>991.9999999999984</v>
+        <v>992.000000000008</v>
       </c>
       <c r="N25">
-        <v>1123.99999999999</v>
+        <v>1124.00000000001</v>
       </c>
       <c r="O25">
-        <v>1181.999999999991</v>
+        <v>1182.000000000013</v>
       </c>
       <c r="P25">
-        <v>1253.999999999992</v>
+        <v>1254.000000000015</v>
       </c>
       <c r="Q25">
-        <v>1330.999999999993</v>
+        <v>1331.000000000017</v>
       </c>
       <c r="R25">
-        <v>1430.999999999994</v>
+        <v>1431.00000000002</v>
       </c>
       <c r="S25">
-        <v>1586.999999999995</v>
+        <v>1587.000000000023</v>
       </c>
       <c r="T25">
-        <v>1712.999999999997</v>
+        <v>1713.000000000026</v>
       </c>
       <c r="U25">
-        <v>1750.999999999997</v>
+        <v>1751.000000000029</v>
       </c>
       <c r="V25">
-        <v>1846.999999999999</v>
+        <v>1847.000000000032</v>
       </c>
       <c r="W25">
-        <v>1955</v>
+        <v>1955.000000000035</v>
       </c>
       <c r="X25">
-        <v>2125.000000000002</v>
+        <v>2125.000000000039</v>
       </c>
       <c r="Y25">
-        <v>2305.000000000002</v>
+        <v>2305.000000000043</v>
       </c>
       <c r="Z25">
-        <v>2390.000000000002</v>
+        <v>2390.000000000048</v>
       </c>
       <c r="AA25">
-        <v>2486.000000000002</v>
+        <v>2486.000000000048</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -36157,10 +36157,10 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>137.999999999998</v>
+        <v>138</v>
       </c>
       <c r="AA26">
-        <v>262.999999999998</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -36486,7 +36486,7 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>2.842170943040401E-13</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -36575,7 +36575,7 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.1999999999799513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -36693,55 +36693,55 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>260.9999992029831</v>
+        <v>261</v>
       </c>
       <c r="L33">
-        <v>52.19999984059672</v>
+        <v>52.19999999999982</v>
       </c>
       <c r="M33">
-        <v>130.4399999681195</v>
+        <v>130.4399999999998</v>
       </c>
       <c r="N33">
-        <v>229.087999993624</v>
+        <v>229.0879999999998</v>
       </c>
       <c r="O33">
-        <v>164.8175999987249</v>
+        <v>164.8175999999986</v>
       </c>
       <c r="P33">
-        <v>133.9635199997451</v>
+        <v>133.9635199999992</v>
       </c>
       <c r="Q33">
-        <v>291.792703999949</v>
+        <v>291.7927039999995</v>
       </c>
       <c r="R33">
-        <v>58.35854079998981</v>
+        <v>58.35854079999986</v>
       </c>
       <c r="S33">
-        <v>210.6717081231876</v>
+        <v>210.6717081599993</v>
       </c>
       <c r="T33">
-        <v>226.1343416246377</v>
+        <v>226.134341631998</v>
       </c>
       <c r="U33">
-        <v>182.2268683249276</v>
+        <v>182.2268683263991</v>
       </c>
       <c r="V33">
-        <v>198.4453736649855</v>
+        <v>198.4453736652798</v>
       </c>
       <c r="W33">
-        <v>337.6890747329971</v>
+        <v>337.6890747330559</v>
       </c>
       <c r="X33">
-        <v>67.53781494646523</v>
+        <v>67.53781494661072</v>
       </c>
       <c r="Y33">
-        <v>219.5075629894272</v>
+        <v>219.5075629893216</v>
       </c>
       <c r="Z33">
-        <v>219.9015125978854</v>
+        <v>219.901512597864</v>
       </c>
       <c r="AA33">
-        <v>116.9803025195771</v>
+        <v>116.9803025195728</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -36936,28 +36936,28 @@
         <v>24.40000000008149</v>
       </c>
       <c r="I36">
-        <v>139.7600000001257</v>
+        <v>139.7600000001219</v>
       </c>
       <c r="J36">
-        <v>109.9040000001551</v>
+        <v>109.9040000000488</v>
       </c>
       <c r="K36">
-        <v>140.9616000000909</v>
+        <v>140.9616000000943</v>
       </c>
       <c r="L36">
-        <v>252.3846400000364</v>
+        <v>252.3846400000377</v>
       </c>
       <c r="M36">
-        <v>211.9538560001529</v>
+        <v>211.9538560000142</v>
       </c>
       <c r="N36">
-        <v>84.781542400131</v>
+        <v>84.78154240000566</v>
       </c>
       <c r="O36">
-        <v>104.9126169600609</v>
+        <v>104.9126169600614</v>
       </c>
       <c r="P36">
-        <v>157.9650467840244</v>
+        <v>157.9650467840246</v>
       </c>
       <c r="Q36">
         <v>190.1860187136917</v>
@@ -36969,28 +36969,28 @@
         <v>181.8297629941953</v>
       </c>
       <c r="T36">
-        <v>111.7319051976673</v>
+        <v>111.7319051976768</v>
       </c>
       <c r="U36">
-        <v>156.692762079067</v>
+        <v>156.6927620790707</v>
       </c>
       <c r="V36">
-        <v>225.677104831627</v>
+        <v>225.6771048316279</v>
       </c>
       <c r="W36">
-        <v>281.2708419326509</v>
+        <v>281.2708419326499</v>
       </c>
       <c r="X36">
-        <v>301.5083367730604</v>
+        <v>301.5083367730588</v>
       </c>
       <c r="Y36">
-        <v>147.6033347092242</v>
+        <v>147.6033347093025</v>
       </c>
       <c r="Z36">
-        <v>59.04133388368967</v>
+        <v>59.04133388372099</v>
       </c>
       <c r="AA36">
-        <v>132.6165335534759</v>
+        <v>132.6165335534884</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -37176,70 +37176,70 @@
         <v>71.56000000011409</v>
       </c>
       <c r="F39">
-        <v>191.6240000001271</v>
+        <v>191.6240000001263</v>
       </c>
       <c r="G39">
-        <v>105.6496000001789</v>
+        <v>105.6496000000505</v>
       </c>
       <c r="H39">
-        <v>135.259840000188</v>
+        <v>135.2598400000197</v>
       </c>
       <c r="I39">
-        <v>155.103936000145</v>
+        <v>155.1039360000073</v>
       </c>
       <c r="J39">
-        <v>142.0415744000929</v>
+        <v>142.0415744000908</v>
       </c>
       <c r="K39">
-        <v>181.816629760142</v>
+        <v>181.8166297600363</v>
       </c>
       <c r="L39">
-        <v>158.7266519041732</v>
+        <v>158.7266519040127</v>
       </c>
       <c r="M39">
-        <v>63.49066076177405</v>
+        <v>63.49066076160495</v>
       </c>
       <c r="N39">
-        <v>158.3962643048144</v>
+        <v>158.3962643046414</v>
       </c>
       <c r="O39">
-        <v>239.3585057220189</v>
+        <v>239.3585057218562</v>
       </c>
       <c r="P39">
-        <v>169.7434022889356</v>
+        <v>169.743402288742</v>
       </c>
       <c r="Q39">
-        <v>132.8973609156674</v>
+        <v>132.8973609154964</v>
       </c>
       <c r="R39">
-        <v>183.158944366267</v>
+        <v>183.1589443662667</v>
       </c>
       <c r="S39">
-        <v>73.26357774663484</v>
+        <v>73.26357774650668</v>
       </c>
       <c r="T39">
-        <v>202.3054310987354</v>
+        <v>202.3054310986026</v>
       </c>
       <c r="U39">
-        <v>220.9221724395757</v>
+        <v>220.9221724394403</v>
       </c>
       <c r="V39">
-        <v>175.3688689759001</v>
+        <v>175.3688689757756</v>
       </c>
       <c r="W39">
-        <v>154.1475475904881</v>
+        <v>154.14754759031</v>
       </c>
       <c r="X39">
-        <v>174.6590190363349</v>
+        <v>174.659019036123</v>
       </c>
       <c r="Y39">
-        <v>91.86360761453398</v>
+        <v>91.86360761444831</v>
       </c>
       <c r="Z39">
-        <v>155.7454430458136</v>
+        <v>155.7454430458602</v>
       </c>
       <c r="AA39">
-        <v>214.2981772183254</v>
+        <v>214.2981772183441</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>3.410605131648481E-13</v>
+        <v>0</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -37479,16 +37479,16 @@
         <v>0</v>
       </c>
       <c r="X42">
-        <v>13.99999999999909</v>
+        <v>14</v>
       </c>
       <c r="Y42">
-        <v>310.1999999999998</v>
+        <v>310.2</v>
       </c>
       <c r="Z42">
-        <v>412.1600000000003</v>
+        <v>412.16</v>
       </c>
       <c r="AA42">
-        <v>407.7280000000002</v>
+        <v>407.728</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -38146,13 +38146,13 @@
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>177</v>
+        <v>177.0000000000007</v>
       </c>
       <c r="Z50">
-        <v>263.6</v>
+        <v>263.600000000001</v>
       </c>
       <c r="AA50">
-        <v>311.88</v>
+        <v>311.8800000000008</v>
       </c>
     </row>
     <row r="51" spans="1:27">
@@ -38730,10 +38730,10 @@
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="AA57">
-        <v>188.5</v>
+        <v>214.5</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -38771,7 +38771,7 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>1.77635683940025E-14</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -38827,49 +38827,49 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>114.3</v>
+        <v>114.3000000000466</v>
       </c>
       <c r="D59">
-        <v>58.42999999845411</v>
+        <v>58.43000000005122</v>
       </c>
       <c r="E59">
-        <v>0.8429999998456807</v>
+        <v>48.84300000000512</v>
       </c>
       <c r="F59">
-        <v>0.08429999998458015</v>
+        <v>180.8843000000925</v>
       </c>
       <c r="G59">
-        <v>19.00842999999846</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>48.90084299999955</v>
+        <v>1.088430000009275</v>
       </c>
       <c r="I59">
-        <v>63.89008429999958</v>
+        <v>0.1088430000008884</v>
       </c>
       <c r="J59">
-        <v>36.38900843000015</v>
+        <v>30.01088430000009</v>
       </c>
       <c r="K59">
-        <v>26.6389008480084</v>
+        <v>26.00108843000001</v>
       </c>
       <c r="L59">
-        <v>0.6638900848013805</v>
+        <v>0.600108843000001</v>
       </c>
       <c r="M59">
-        <v>0.06638900848024237</v>
+        <v>9.060010884299997</v>
       </c>
       <c r="N59">
-        <v>19.00663890084822</v>
+        <v>19.90600108843</v>
       </c>
       <c r="O59">
-        <v>60.90066389195191</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>6.090066389195191</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>0.609006638919333</v>
+        <v>0</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -38881,25 +38881,25 @@
         <v>0</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>115.9905999999997</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>11.59905999999998</v>
       </c>
       <c r="W59">
-        <v>0.0609006638919061</v>
+        <v>2.159905999999998</v>
       </c>
       <c r="X59">
-        <v>0.006090066388537707</v>
+        <v>16.2159906</v>
       </c>
       <c r="Y59">
-        <v>0.0006090066388821924</v>
+        <v>39.62159906000002</v>
       </c>
       <c r="Z59">
-        <v>6.090066388821924E-05</v>
+        <v>3.962159906000002</v>
       </c>
       <c r="AA59">
-        <v>169.0000060900664</v>
+        <v>169.3962159906</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -38928,7 +38928,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>2.771116669464392E-12</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -38940,7 +38940,7 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>4.661160346586257E-12</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -39148,7 +39148,7 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>199.9999999999995</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -39314,7 +39314,7 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0.1999999999999049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -39598,55 +39598,55 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>41.80000000000001</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>128.8000000000036</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>4.04000000000002</v>
+        <v>129.44</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>115.2320000000113</v>
+        <v>128.5520000000002</v>
       </c>
       <c r="R68">
         <v>0</v>
       </c>
       <c r="S68">
-        <v>0.1856000000088898</v>
+        <v>0.8416000000003407</v>
       </c>
       <c r="T68">
-        <v>26.14848000000825</v>
+        <v>26.67328000000026</v>
       </c>
       <c r="U68">
-        <v>184.9187840000066</v>
+        <v>185.3386240000002</v>
       </c>
       <c r="V68">
-        <v>159.9350272000045</v>
+        <v>160.2708992000002</v>
       </c>
       <c r="W68">
-        <v>248.9480217600022</v>
+        <v>249.2167193600001</v>
       </c>
       <c r="X68">
-        <v>343.1584174080006</v>
+        <v>343.3733754880001</v>
       </c>
       <c r="Y68">
-        <v>549.5267339264001</v>
+        <v>549.6987003904001</v>
       </c>
       <c r="Z68">
-        <v>439.6213871411187</v>
+        <v>439.7589603123201</v>
       </c>
       <c r="AA68">
-        <v>548.6971097128936</v>
+        <v>548.8071682498562</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -40105,7 +40105,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>1.4210854715202E-14</v>
+        <v>0</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -40253,7 +40253,7 @@
         <v>150.3680000000691</v>
       </c>
       <c r="H76">
-        <v>90.11039999904875</v>
+        <v>90.11039999924002</v>
       </c>
       <c r="I76">
         <v>88.03312000026926</v>
@@ -40265,13 +40265,13 @@
         <v>77.22298080020119</v>
       </c>
       <c r="L76">
-        <v>214.1668942401302</v>
+        <v>214.1668942400603</v>
       </c>
       <c r="M76">
-        <v>96.25006827203906</v>
+        <v>96.25006827126658</v>
       </c>
       <c r="N76">
-        <v>43.87502048110559</v>
+        <v>43.87502048182068</v>
       </c>
       <c r="O76">
         <v>110.1625061447266</v>
@@ -40295,16 +40295,16 @@
         <v>121.7851784672239</v>
       </c>
       <c r="V76">
-        <v>276.5355535401671</v>
+        <v>276.5355535402778</v>
       </c>
       <c r="W76">
-        <v>103.9606660592642</v>
+        <v>103.9606660620833</v>
       </c>
       <c r="X76">
-        <v>291.1881998187746</v>
+        <v>291.188199818625</v>
       </c>
       <c r="Y76">
-        <v>87.35645994584775</v>
+        <v>87.35645994531797</v>
       </c>
       <c r="Z76">
         <v>108.2069379838649</v>
@@ -40393,7 +40393,7 @@
         <v>0</v>
       </c>
       <c r="AA77">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:27">
@@ -40544,7 +40544,7 @@
         <v>0</v>
       </c>
       <c r="V79">
-        <v>2.273736754432321E-13</v>
+        <v>0</v>
       </c>
       <c r="W79">
         <v>0</v>
@@ -40556,7 +40556,7 @@
         <v>0</v>
       </c>
       <c r="Z79">
-        <v>2.273736754432321E-13</v>
+        <v>0</v>
       </c>
       <c r="AA79">
         <v>0</v>
@@ -40642,7 +40642,7 @@
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>76.99999999999881</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:27">
@@ -40790,7 +40790,7 @@
         <v>286.9440481280126</v>
       </c>
       <c r="U82">
-        <v>169.7776192506681</v>
+        <v>169.7776192507263</v>
       </c>
       <c r="V82">
         <v>197.9110477006761</v>
@@ -40799,16 +40799,16 @@
         <v>321.1644190803636</v>
       </c>
       <c r="X82">
-        <v>231.4657676321804</v>
+        <v>231.4657676321454</v>
       </c>
       <c r="Y82">
-        <v>452.5863070528721</v>
+        <v>452.5863070528582</v>
       </c>
       <c r="Z82">
-        <v>265.0345228211489</v>
+        <v>265.0345228211432</v>
       </c>
       <c r="AA82">
-        <v>183.0138091284596</v>
+        <v>183.0138091284573</v>
       </c>
     </row>
     <row r="83" spans="1:27">
@@ -40840,7 +40840,7 @@
         <v>73</v>
       </c>
       <c r="J83">
-        <v>31.89999999906703</v>
+        <v>31.89999999882589</v>
       </c>
       <c r="K83">
         <v>168.5700000001234</v>
@@ -40852,13 +40852,13 @@
         <v>107.0713000001851</v>
       </c>
       <c r="N83">
-        <v>178.1213900000556</v>
+        <v>178.1213900002767</v>
       </c>
       <c r="O83">
-        <v>118.4364169994369</v>
+        <v>118.436417000083</v>
       </c>
       <c r="P83">
-        <v>123.5309251002618</v>
+        <v>123.530925099688</v>
       </c>
       <c r="Q83">
         <v>267.0592775302939</v>
@@ -40873,25 +40873,25 @@
         <v>236.4406004933179</v>
       </c>
       <c r="U83">
-        <v>90.93218014770807</v>
+        <v>90.93218014799538</v>
       </c>
       <c r="V83">
-        <v>176.2796540445997</v>
+        <v>176.2796540443986</v>
       </c>
       <c r="W83">
-        <v>308.8838962133799</v>
+        <v>308.8838962133196</v>
       </c>
       <c r="X83">
-        <v>255.665168864014</v>
+        <v>255.6651688639959</v>
       </c>
       <c r="Y83">
-        <v>108.6995506592042</v>
+        <v>108.6995506591987</v>
       </c>
       <c r="Z83">
-        <v>227.6098651977613</v>
+        <v>227.6098651977596</v>
       </c>
       <c r="AA83">
-        <v>68.28295955932838</v>
+        <v>68.28295955932789</v>
       </c>
     </row>
     <row r="84" spans="1:27">
@@ -41220,10 +41220,10 @@
         <v>158</v>
       </c>
       <c r="Z87">
-        <v>100.3999999999997</v>
+        <v>100.4</v>
       </c>
       <c r="AA87">
-        <v>226.1199999999999</v>
+        <v>226.12</v>
       </c>
     </row>
     <row r="88" spans="1:27">
@@ -41285,7 +41285,7 @@
         <v>0</v>
       </c>
       <c r="T88">
-        <v>0</v>
+        <v>1.307398633798584E-12</v>
       </c>
       <c r="U88">
         <v>0</v>
@@ -41389,7 +41389,7 @@
         <v>0</v>
       </c>
       <c r="AA89">
-        <v>71.99999999999977</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:27">
@@ -41424,55 +41424,55 @@
         <v>201</v>
       </c>
       <c r="K90">
-        <v>293.8</v>
+        <v>293.8000000000466</v>
       </c>
       <c r="L90">
-        <v>235.04</v>
+        <v>235.0400000000373</v>
       </c>
       <c r="M90">
-        <v>327.0320000000002</v>
+        <v>327.0320000000647</v>
       </c>
       <c r="N90">
-        <v>459.6256000000002</v>
+        <v>459.6256000000722</v>
       </c>
       <c r="O90">
-        <v>384.7004800000002</v>
+        <v>384.7004800000577</v>
       </c>
       <c r="P90">
-        <v>482.7603840000002</v>
+        <v>482.7603840000811</v>
       </c>
       <c r="Q90">
-        <v>562.2083072000001</v>
+        <v>562.2083072001114</v>
       </c>
       <c r="R90">
-        <v>483.7666457600002</v>
+        <v>483.7666457601008</v>
       </c>
       <c r="S90">
-        <v>472.0133166080002</v>
+        <v>472.0133166080807</v>
       </c>
       <c r="T90">
-        <v>608.6106532864002</v>
+        <v>608.6106532864646</v>
       </c>
       <c r="U90">
-        <v>516.8885226291202</v>
+        <v>516.8885226291718</v>
       </c>
       <c r="V90">
-        <v>594.5108181032961</v>
+        <v>594.510818103337</v>
       </c>
       <c r="W90">
-        <v>651.6086544826369</v>
+        <v>651.6086544826696</v>
       </c>
       <c r="X90">
-        <v>603.2869235861097</v>
+        <v>603.2869235861358</v>
       </c>
       <c r="Y90">
-        <v>522.6295388688877</v>
+        <v>522.6295388689086</v>
       </c>
       <c r="Z90">
-        <v>698.1036310951101</v>
+        <v>698.103631095204</v>
       </c>
       <c r="AA90">
-        <v>606.4829048760881</v>
+        <v>606.4829048761633</v>
       </c>
     </row>
     <row r="91" spans="1:27">
@@ -41552,10 +41552,10 @@
         <v>0</v>
       </c>
       <c r="Z91">
-        <v>34.60000000000035</v>
+        <v>34.6</v>
       </c>
       <c r="AA91">
-        <v>355.7600000000002</v>
+        <v>355.76</v>
       </c>
     </row>
     <row r="92" spans="1:27">
@@ -41632,7 +41632,7 @@
         <v>313.9</v>
       </c>
       <c r="Y92">
-        <v>451.51</v>
+        <v>451.5099999999999</v>
       </c>
       <c r="Z92">
         <v>515.3589999999999</v>
@@ -41869,10 +41869,10 @@
         <v>260.3006554239546</v>
       </c>
       <c r="U95">
-        <v>180.0901966263024</v>
+        <v>180.0901966271864</v>
       </c>
       <c r="V95">
-        <v>199.0270589883439</v>
+        <v>199.0270589875847</v>
       </c>
       <c r="W95">
         <v>199.7081176966312</v>
@@ -41881,13 +41881,13 @@
         <v>276.9124353092047</v>
       </c>
       <c r="Y95">
-        <v>398.0737305928487</v>
+        <v>398.0737305927614</v>
       </c>
       <c r="Z95">
-        <v>303.4221191778546</v>
+        <v>303.4221191778284</v>
       </c>
       <c r="AA95">
-        <v>145.0266357533564</v>
+        <v>145.0266357533485</v>
       </c>
     </row>
     <row r="96" spans="1:27">
@@ -42053,7 +42053,7 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>0.7000000000398501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:27">
@@ -42088,7 +42088,7 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>5.684341886080803E-12</v>
+        <v>0</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -42124,10 +42124,10 @@
         <v>0</v>
       </c>
       <c r="W98">
-        <v>1.080024958355352E-11</v>
+        <v>0</v>
       </c>
       <c r="X98">
-        <v>4.32009983342141E-11</v>
+        <v>0</v>
       </c>
       <c r="Y98">
         <v>0</v>
@@ -42275,16 +42275,16 @@
         <v>187.4994536469167</v>
       </c>
       <c r="R100">
-        <v>18.74994536408726</v>
+        <v>18.74994536446239</v>
       </c>
       <c r="S100">
         <v>274.8749945366289</v>
       </c>
       <c r="T100">
-        <v>98.48749945370946</v>
+        <v>98.48749945366289</v>
       </c>
       <c r="U100">
-        <v>9.848749945464078</v>
+        <v>9.848749945224782</v>
       </c>
       <c r="V100">
         <v>232.9848749946686</v>
@@ -42293,7 +42293,7 @@
         <v>243.2984874994669</v>
       </c>
       <c r="X100">
-        <v>24.32984874983473</v>
+        <v>24.32984874982115</v>
       </c>
       <c r="Y100">
         <v>260.4329848751076</v>
@@ -42355,37 +42355,37 @@
         <v>1408.901062240126</v>
       </c>
       <c r="Q101">
-        <v>1387.010956016113</v>
+        <v>1387.010956016195</v>
       </c>
       <c r="R101">
-        <v>1481.309860414502</v>
+        <v>1481.309860414651</v>
       </c>
       <c r="S101">
-        <v>1502.178874373052</v>
+        <v>1502.178874373203</v>
       </c>
       <c r="T101">
-        <v>1521.960986935747</v>
+        <v>1521.960986935883</v>
       </c>
       <c r="U101">
-        <v>1567.764888242172</v>
+        <v>1567.764888242353</v>
       </c>
       <c r="V101">
-        <v>1663.988399417955</v>
+        <v>1663.988399418187</v>
       </c>
       <c r="W101">
-        <v>1665.589559476159</v>
+        <v>1665.589559476415</v>
       </c>
       <c r="X101">
-        <v>1800.030603528543</v>
+        <v>1800.030603528838</v>
       </c>
       <c r="Y101">
-        <v>1759.027543175689</v>
+        <v>1759.027543176024</v>
       </c>
       <c r="Z101">
-        <v>1786.12478885812</v>
+        <v>1786.124788858462</v>
       </c>
       <c r="AA101">
-        <v>1765.512309972308</v>
+        <v>1765.512309972616</v>
       </c>
     </row>
   </sheetData>
